--- a/Pick&Place/Pick_place.xlsx
+++ b/Pick&Place/Pick_place.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scarcia\Documents\MATLAB\Simulazione-Avanzata-Master\Pick&amp;Place\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFCB582-50A2-4291-88C9-0822D5CF66C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9B359-DDA2-4DC8-94C9-634B21AB989D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="60" windowWidth="21315" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,63 @@
   </si>
   <si>
     <t>Deposita Scatola 3 --&gt; Pezzo3</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>Verifita availability operatore/utensile</t>
+  </si>
+  <si>
+    <t>Verifica pezzo3 montato</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>2 led scatola 1 0-1 per ogni posizione</t>
+  </si>
+  <si>
+    <t>4 led scatola 2 0-1 per ogni posizione</t>
+  </si>
+  <si>
+    <t>6 led scatola 3 0-1 per ogni posizione</t>
+  </si>
+  <si>
+    <t>1 tasto operatore/utensile</t>
   </si>
 </sst>
 </file>
@@ -476,7 +533,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -509,28 +566,36 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -538,7 +603,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -548,20 +613,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -571,86 +640,113 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
     </row>

--- a/Pick&Place/Pick_place.xlsx
+++ b/Pick&Place/Pick_place.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scarcia\Documents\MATLAB\Simulazione-Avanzata-Master\Pick&amp;Place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEGAsync\libri\Master\04_Model_Based\Esame\Simulazione-Avanzata-Master\Pick&amp;Place\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9B359-DDA2-4DC8-94C9-634B21AB989D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4DED80-1609-4CBD-B4F1-1FD6B43F0A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="60" windowWidth="21315" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17745" yWindow="4920" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Simulink_requirement_item_1">Sheet1!$F$18</definedName>
+    <definedName name="Simulink_requirement_item_1">Sheet1!$F$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -81,48 +81,18 @@
     <t xml:space="preserve">Scatola 2: stato 0,1,2,3,4 = N pezzi </t>
   </si>
   <si>
-    <t>Status availability scatola: on/off pulsante</t>
-  </si>
-  <si>
     <t>Scatola 1: stato 0,1,2 = N pezzi</t>
   </si>
   <si>
-    <t>Sostituzione scatola piena</t>
-  </si>
-  <si>
     <t>Workspace</t>
   </si>
   <si>
-    <t>Verifica workspace disponibile (IsReady)</t>
-  </si>
-  <si>
-    <t>Utensile: Availability + AssemblyStatus</t>
-  </si>
-  <si>
-    <t>Operatore: Availability + AssemblyStatus</t>
-  </si>
-  <si>
     <t>Pick&amp;Place</t>
   </si>
   <si>
-    <t>Mostra status workspace (IsReady = 0,1)</t>
-  </si>
-  <si>
-    <t>Verifica Scatola 1 != 0</t>
-  </si>
-  <si>
     <t>Verifica Scatola 2 != 0</t>
   </si>
   <si>
-    <t>Verifica Scatola 3 != 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preleva Scatola 1 --&gt; Pezzo1 </t>
-  </si>
-  <si>
-    <t>Preleva Scatola 2 --&gt; Pezzo2</t>
-  </si>
-  <si>
     <t>Deposita Scatola 3 --&gt; Pezzo3</t>
   </si>
   <si>
@@ -162,12 +132,6 @@
     <t>R23</t>
   </si>
   <si>
-    <t>Verifita availability operatore/utensile</t>
-  </si>
-  <si>
-    <t>Verifica pezzo3 montato</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -181,13 +145,76 @@
   </si>
   <si>
     <t>1 tasto operatore/utensile</t>
+  </si>
+  <si>
+    <t>Lo stato iniziale di ciascuna scatola è quello della massima capienza pe rle scatole 1 e 2 e di vuoto per la scaola 3</t>
+  </si>
+  <si>
+    <t>Ciascuna scatola ha un campo di availability che viene settato da un bottone esterno (scatola presente o meno) Status availability scatola: on/off pulsante</t>
+  </si>
+  <si>
+    <t>Il prelievo ed il deposito da una scatola ordinata</t>
+  </si>
+  <si>
+    <t>Mostra status workspace (IsReady = 0,1) pezzo 3 assemblato o meno</t>
+  </si>
+  <si>
+    <t>Check che sia disponibile il pezzo1, pezzo2 e che lo spoazio di lavoro sia libero (IsFree)</t>
+  </si>
+  <si>
+    <t>La presenza o meno di un elemento nello spazio di laoro è fornita dall'esterno con un bottone</t>
+  </si>
+  <si>
+    <t>L'utensile o l'operatore verificano la presenza dei due pezzi e può iniziare l'assemblaggio (AssemblyStatus true)</t>
+  </si>
+  <si>
+    <t>Utensile: Availability + IsReady = AssemblyStatus</t>
+  </si>
+  <si>
+    <t>Operatore: Availability + IsReady = AssemblyStatus</t>
+  </si>
+  <si>
+    <t>L'utensile o l'operatore eseguono l'assemblaggio. Se Assembly Status di operatore OR di utensile sono posti a true, l'assemblaggio può cominciare e termina dopo un certo ritardo</t>
+  </si>
+  <si>
+    <t>La macchina verifica che il pezzo sia montato (IsReady)</t>
+  </si>
+  <si>
+    <t>Verifica Scatola 1 Capienza != 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica Scatola 1 Availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica Scatola 2 Availability </t>
+  </si>
+  <si>
+    <t>Preleva Scatola 1 --&gt; Pezzo1  e decrementa la capienza ( cambia di stato la capienza)</t>
+  </si>
+  <si>
+    <t>Preleva Scatola 2 --&gt; Pezzo2 decrementa la capienza ( cambia di stato la capienza)</t>
+  </si>
+  <si>
+    <t>Verifica Scatola 3 Capienza != 6</t>
+  </si>
+  <si>
+    <t>Verifica Scatola 3 Availability</t>
+  </si>
+  <si>
+    <t>Verifica della presenza del pezzo 3</t>
+  </si>
+  <si>
+    <t>Verifica della capienza delle tre scatole</t>
+  </si>
+  <si>
+    <t>Sostituzione scatola piena (se scatola 3) o sosituzione delle scatole 1 e 2 se vuote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -196,6 +223,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -220,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -256,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC9BAC1-8556-4D24-8490-40B1AFF53A3C}" name="Tabella1" displayName="Tabella1" ref="A1:C25" totalsRowShown="0">
-  <autoFilter ref="A1:C25" xr:uid="{C83435B9-BEE0-4FB8-9163-FD8F5F7B9E63}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC9BAC1-8556-4D24-8490-40B1AFF53A3C}" name="Tabella1" displayName="Tabella1" ref="A1:C35" totalsRowShown="0">
+  <autoFilter ref="A1:C35" xr:uid="{C83435B9-BEE0-4FB8-9163-FD8F5F7B9E63}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BED8E264-D59E-4618-B98B-F06EF1E572E4}" name="ID"/>
     <tableColumn id="2" xr3:uid="{4ED28E0C-A0AA-41E5-AF14-F7ECA9568E23}" name="Summary"/>
@@ -530,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -543,7 +578,7 @@
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -562,10 +597,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,7 +609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -583,217 +618,279 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
+      <c r="A25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>